--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PEUDfSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PEUDfSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48CC2F7-C512-4F53-80EA-F4EAFCE5B684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
+    <sheet name="Texas Notes" sheetId="6" r:id="rId4"/>
+    <sheet name="PEUDfSbQL" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>Source:</t>
   </si>
@@ -355,12 +367,48 @@
   </si>
   <si>
     <t>Percent Difference in E Use (dimensionless)</t>
+  </si>
+  <si>
+    <t>They are just comparing the efficiency of new appliances:</t>
+  </si>
+  <si>
+    <t>standard versus energy star rebate qualifying</t>
+  </si>
+  <si>
+    <t>i.e., the point of this spreadsheet is to estimate how much a household's energy consumption would change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if they decide to use a rebate to get a higher-efficiency appliance instead of just opting for the cheap alternative. </t>
+  </si>
+  <si>
+    <t>I think the method makes sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And there's no reason that Texas should be different. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New technology in Texas should be as efficient as new technology across the US. </t>
+  </si>
+  <si>
+    <t>The only difference might be if Texas rebates incentivize a different level of efficiency than</t>
+  </si>
+  <si>
+    <t>national rebates do, but some of the other sources used in the building input files seem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to indicate that Texas doesn't usually have appliance rebates on top of the national ones. </t>
+  </si>
+  <si>
+    <t>So it's a good assumption that if a Texan uses a rebate to buy a more efficient appliance, that</t>
+  </si>
+  <si>
+    <t>rebate will be a national one and it will be based on national energy star standards.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -622,6 +670,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -657,6 +722,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -832,10 +914,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -939,11 +1021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,31 +1702,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="F21" r:id="rId10"/>
-    <hyperlink ref="F22" r:id="rId11"/>
-    <hyperlink ref="E23" r:id="rId12"/>
-    <hyperlink ref="E25" r:id="rId13"/>
-    <hyperlink ref="F26" r:id="rId14"/>
-    <hyperlink ref="E35" r:id="rId15"/>
-    <hyperlink ref="E36" r:id="rId16"/>
-    <hyperlink ref="E37" r:id="rId17"/>
-    <hyperlink ref="E38" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="E24" r:id="rId20"/>
-    <hyperlink ref="F27" r:id="rId21"/>
-    <hyperlink ref="F28" r:id="rId22"/>
-    <hyperlink ref="F29" r:id="rId23"/>
-    <hyperlink ref="E32" r:id="rId24"/>
-    <hyperlink ref="E33" r:id="rId25"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F22" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E23" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F26" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E36" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E38" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="F27" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F28" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1654,11 +1736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,24 +1851,101 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B21029-0264-4233-BBAF-A88F424B1DEF}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,40 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PEUDfSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PEUDfSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48CC2F7-C512-4F53-80EA-F4EAFCE5B684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="Texas Notes" sheetId="6" r:id="rId4"/>
-    <sheet name="PEUDfSbQL" sheetId="5" r:id="rId5"/>
+    <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
   <si>
     <t>Source:</t>
   </si>
@@ -367,48 +355,12 @@
   </si>
   <si>
     <t>Percent Difference in E Use (dimensionless)</t>
-  </si>
-  <si>
-    <t>They are just comparing the efficiency of new appliances:</t>
-  </si>
-  <si>
-    <t>standard versus energy star rebate qualifying</t>
-  </si>
-  <si>
-    <t>i.e., the point of this spreadsheet is to estimate how much a household's energy consumption would change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if they decide to use a rebate to get a higher-efficiency appliance instead of just opting for the cheap alternative. </t>
-  </si>
-  <si>
-    <t>I think the method makes sense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And there's no reason that Texas should be different. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New technology in Texas should be as efficient as new technology across the US. </t>
-  </si>
-  <si>
-    <t>The only difference might be if Texas rebates incentivize a different level of efficiency than</t>
-  </si>
-  <si>
-    <t>national rebates do, but some of the other sources used in the building input files seem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to indicate that Texas doesn't usually have appliance rebates on top of the national ones. </t>
-  </si>
-  <si>
-    <t>So it's a good assumption that if a Texan uses a rebate to buy a more efficient appliance, that</t>
-  </si>
-  <si>
-    <t>rebate will be a national one and it will be based on national energy star standards.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -670,23 +622,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -722,23 +657,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -914,10 +832,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1021,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,31 +1620,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="F21" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E23" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F26" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E36" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E37" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E38" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="F27" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="F28" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E32" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E33" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
+    <hyperlink ref="F21" r:id="rId10"/>
+    <hyperlink ref="F22" r:id="rId11"/>
+    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="F26" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E36" r:id="rId16"/>
+    <hyperlink ref="E37" r:id="rId17"/>
+    <hyperlink ref="E38" r:id="rId18"/>
+    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="F27" r:id="rId21"/>
+    <hyperlink ref="F28" r:id="rId22"/>
+    <hyperlink ref="F29" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E33" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1736,11 +1654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,101 +1769,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B21029-0264-4233-BBAF-A88F424B1DEF}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
